--- a/excel/initial_with_data.xlsx
+++ b/excel/initial_with_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -4930,7 +4930,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4938,6 +4938,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4971,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>201200001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4988,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>201200001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5005,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>201200002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5022,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>201200002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5039,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>201200003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5056,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>201200003</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5070,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6246,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8748,8 +8749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12873,7 +12874,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/excel/initial_with_data.xlsx
+++ b/excel/initial_with_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="634">
   <si>
     <t>firstname</t>
   </si>
@@ -1934,6 +1934,9 @@
   </si>
   <si>
     <t>Manahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2335,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4930,7 +4933,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5232,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6247,7 +6250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -8747,9 +8750,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -8917,6 +8920,11 @@
       </c>
       <c r="J5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/excel/initial_with_data.xlsx
+++ b/excel/initial_with_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="633">
   <si>
     <t>firstname</t>
   </si>
@@ -1109,9 +1109,6 @@
   </si>
   <si>
     <t>Hydraulics 3</t>
-  </si>
-  <si>
-    <t>hydraulics 4</t>
   </si>
   <si>
     <t>Geotech 2</t>
@@ -2356,7 +2353,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3508,7 +3505,7 @@
         <v>169</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -3537,7 +3534,7 @@
         <v>173</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
@@ -3566,7 +3563,7 @@
         <v>177</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
@@ -3595,7 +3592,7 @@
         <v>180</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -3624,7 +3621,7 @@
         <v>184</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
@@ -3653,7 +3650,7 @@
         <v>188</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I45" t="s">
         <v>15</v>
@@ -3682,7 +3679,7 @@
         <v>192</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
@@ -3711,7 +3708,7 @@
         <v>196</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
@@ -3740,7 +3737,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
@@ -3769,7 +3766,7 @@
         <v>204</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I49" t="s">
         <v>15</v>
@@ -3798,7 +3795,7 @@
         <v>208</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I50" t="s">
         <v>15</v>
@@ -3827,7 +3824,7 @@
         <v>212</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I51" t="s">
         <v>15</v>
@@ -3856,7 +3853,7 @@
         <v>215</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I52" t="s">
         <v>15</v>
@@ -3885,7 +3882,7 @@
         <v>219</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
@@ -3914,7 +3911,7 @@
         <v>223</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
@@ -3943,7 +3940,7 @@
         <v>226</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -3972,7 +3969,7 @@
         <v>229</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -4001,7 +3998,7 @@
         <v>233</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -4030,7 +4027,7 @@
         <v>237</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I58" t="s">
         <v>15</v>
@@ -4645,10 +4642,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" t="s">
         <v>466</v>
-      </c>
-      <c r="B1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4656,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4664,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4690,16 +4687,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" t="s">
         <v>524</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>525</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>526</v>
-      </c>
-      <c r="D1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4707,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4743,22 +4740,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" t="s">
         <v>529</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>530</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>531</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>532</v>
       </c>
-      <c r="E1" t="s">
-        <v>533</v>
-      </c>
       <c r="F1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G1" t="s">
         <v>313</v>
@@ -4772,10 +4769,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4798,10 +4795,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4824,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -4850,10 +4847,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -4876,13 +4873,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4902,13 +4899,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4946,19 +4943,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" t="s">
         <v>544</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>545</v>
       </c>
-      <c r="C1" t="s">
-        <v>546</v>
-      </c>
       <c r="D1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4966,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -4983,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -5000,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -5017,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -5034,10 +5031,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -5051,10 +5048,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5088,22 +5085,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" t="s">
         <v>619</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>620</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>621</v>
       </c>
-      <c r="D1" t="s">
-        <v>622</v>
-      </c>
       <c r="E1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -5117,7 +5114,7 @@
         <v>1521421200</v>
       </c>
       <c r="D2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5137,7 +5134,7 @@
         <v>1521428400</v>
       </c>
       <c r="D3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -5157,7 +5154,7 @@
         <v>1520902800</v>
       </c>
       <c r="D4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -5177,7 +5174,7 @@
         <v>1520910000</v>
       </c>
       <c r="D5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -5197,7 +5194,7 @@
         <v>1520989200</v>
       </c>
       <c r="D6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5217,7 +5214,7 @@
         <v>1520996400</v>
       </c>
       <c r="D7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5255,10 +5252,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -5279,16 +5276,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -6077,7 +6074,7 @@
         <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -6115,7 +6112,7 @@
         <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -6153,7 +6150,7 @@
         <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -6191,7 +6188,7 @@
         <v>173</v>
       </c>
       <c r="I25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
@@ -6229,7 +6226,7 @@
         <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -6266,22 +6263,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
         <v>556</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>557</v>
       </c>
-      <c r="C1" t="s">
-        <v>558</v>
-      </c>
       <c r="D1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6289,10 +6286,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6309,10 +6306,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -6326,10 +6323,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -6343,10 +6340,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -6363,10 +6360,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -6380,10 +6377,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -6397,10 +6394,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -6417,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -6434,10 +6431,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -6451,10 +6448,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -6486,19 +6483,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" t="s">
         <v>559</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>560</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>561</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>562</v>
-      </c>
-      <c r="E1" t="s">
-        <v>563</v>
       </c>
       <c r="F1" t="s">
         <v>340</v>
@@ -6512,7 +6509,7 @@
         <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6532,7 +6529,7 @@
         <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6552,7 +6549,7 @@
         <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6572,7 +6569,7 @@
         <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6592,7 +6589,7 @@
         <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6612,7 +6609,7 @@
         <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6632,7 +6629,7 @@
         <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -6652,7 +6649,7 @@
         <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -6672,7 +6669,7 @@
         <v>351</v>
       </c>
       <c r="C10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -6692,7 +6689,7 @@
         <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6712,7 +6709,7 @@
         <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6732,7 +6729,7 @@
         <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6752,7 +6749,7 @@
         <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6772,7 +6769,7 @@
         <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -6792,7 +6789,7 @@
         <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -6812,7 +6809,7 @@
         <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -6832,7 +6829,7 @@
         <v>347</v>
       </c>
       <c r="C18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -6852,7 +6849,7 @@
         <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -6872,7 +6869,7 @@
         <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6892,7 +6889,7 @@
         <v>350</v>
       </c>
       <c r="C21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6912,7 +6909,7 @@
         <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6932,7 +6929,7 @@
         <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -6952,7 +6949,7 @@
         <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6972,7 +6969,7 @@
         <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6992,7 +6989,7 @@
         <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7012,7 +7009,7 @@
         <v>356</v>
       </c>
       <c r="C27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7032,7 +7029,7 @@
         <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -7049,10 +7046,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>583</v>
+      </c>
+      <c r="C29" t="s">
         <v>584</v>
-      </c>
-      <c r="C29" t="s">
-        <v>585</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7069,10 +7066,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7089,10 +7086,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -7109,10 +7106,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -7129,10 +7126,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7149,10 +7146,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7169,10 +7166,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -7189,10 +7186,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -7209,10 +7206,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -7232,7 +7229,7 @@
         <v>343</v>
       </c>
       <c r="C38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -7252,7 +7249,7 @@
         <v>346</v>
       </c>
       <c r="C39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -7272,7 +7269,7 @@
         <v>347</v>
       </c>
       <c r="C40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -7292,7 +7289,7 @@
         <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7312,7 +7309,7 @@
         <v>349</v>
       </c>
       <c r="C42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7329,10 +7326,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -7349,10 +7346,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7369,10 +7366,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7389,10 +7386,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7409,10 +7406,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7429,10 +7426,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7449,10 +7446,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7472,7 +7469,7 @@
         <v>343</v>
       </c>
       <c r="C50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7492,7 +7489,7 @@
         <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7512,7 +7509,7 @@
         <v>347</v>
       </c>
       <c r="C52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7532,7 +7529,7 @@
         <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7552,7 +7549,7 @@
         <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7569,10 +7566,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7589,10 +7586,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7609,10 +7606,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C57" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7629,10 +7626,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7649,10 +7646,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7669,10 +7666,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -7689,10 +7686,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C61" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7709,10 +7706,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7729,10 +7726,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C63" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -7749,10 +7746,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -7769,10 +7766,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C65" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -7789,10 +7786,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C66" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -7809,10 +7806,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -7829,10 +7826,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C68" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -7849,10 +7846,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -7872,7 +7869,7 @@
         <v>343</v>
       </c>
       <c r="C70" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -7892,7 +7889,7 @@
         <v>344</v>
       </c>
       <c r="C71" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -7912,7 +7909,7 @@
         <v>345</v>
       </c>
       <c r="C72" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -7932,7 +7929,7 @@
         <v>346</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7952,7 +7949,7 @@
         <v>347</v>
       </c>
       <c r="C74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -7972,7 +7969,7 @@
         <v>348</v>
       </c>
       <c r="C75" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -7992,7 +7989,7 @@
         <v>349</v>
       </c>
       <c r="C76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -8009,10 +8006,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -8029,10 +8026,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C78" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -8049,10 +8046,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -8069,10 +8066,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -8092,7 +8089,7 @@
         <v>343</v>
       </c>
       <c r="C81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -8112,7 +8109,7 @@
         <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -8132,7 +8129,7 @@
         <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -8152,7 +8149,7 @@
         <v>346</v>
       </c>
       <c r="C84" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -8172,7 +8169,7 @@
         <v>347</v>
       </c>
       <c r="C85" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -8192,7 +8189,7 @@
         <v>348</v>
       </c>
       <c r="C86" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -8212,7 +8209,7 @@
         <v>349</v>
       </c>
       <c r="C87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -8229,10 +8226,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C88" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -8249,10 +8246,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -8269,10 +8266,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C90" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -8289,10 +8286,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C91" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -8309,10 +8306,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -8329,10 +8326,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C93" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -8349,10 +8346,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C94" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -8369,10 +8366,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C95" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -8389,10 +8386,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -8409,10 +8406,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C97" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -8429,10 +8426,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -8449,10 +8446,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -8469,10 +8466,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C100" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -8489,10 +8486,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C101" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -8509,10 +8506,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C102" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -8529,10 +8526,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C103" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -8617,10 +8614,10 @@
         <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -8652,10 +8649,10 @@
         <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -8681,16 +8678,16 @@
         <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>328</v>
       </c>
       <c r="G4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -8722,10 +8719,10 @@
         <v>332</v>
       </c>
       <c r="G5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -8752,8 +8749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8764,7 +8761,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -8788,10 +8785,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J1" t="s">
         <v>453</v>
-      </c>
-      <c r="J1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8799,22 +8796,22 @@
         <v>201200001</v>
       </c>
       <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="s">
         <v>455</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>456</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="E2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F2" t="s">
-        <v>474</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -8831,22 +8828,22 @@
         <v>201200002</v>
       </c>
       <c r="B3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" t="s">
         <v>624</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>625</v>
       </c>
-      <c r="D3" t="s">
-        <v>626</v>
-      </c>
       <c r="E3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -8863,28 +8860,28 @@
         <v>201200003</v>
       </c>
       <c r="B4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" t="s">
         <v>627</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>628</v>
       </c>
-      <c r="D4" t="s">
-        <v>629</v>
-      </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>458</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>459</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -8895,22 +8892,22 @@
         <v>201200004</v>
       </c>
       <c r="B5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C5" t="s">
         <v>630</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>631</v>
       </c>
-      <c r="D5" t="s">
-        <v>632</v>
-      </c>
       <c r="E5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -8924,7 +8921,7 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -9008,11 +9005,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9195,7 +9196,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>358</v>
+        <v>583</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9206,7 +9207,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9217,7 +9218,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9228,7 +9229,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9239,7 +9240,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9250,7 +9251,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9261,7 +9262,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9272,7 +9273,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9283,7 +9284,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9294,7 +9295,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9305,7 +9306,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9316,7 +9317,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9327,7 +9328,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9338,7 +9339,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9349,7 +9350,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9360,7 +9361,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9371,7 +9372,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9382,7 +9383,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9393,7 +9394,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9404,7 +9405,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -9415,7 +9416,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -9426,7 +9427,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -9437,7 +9438,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -9448,7 +9449,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -9459,7 +9460,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -9470,7 +9471,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -9481,7 +9482,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9492,7 +9493,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9503,7 +9504,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9514,7 +9515,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9525,7 +9526,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9536,7 +9537,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -9547,7 +9548,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9558,7 +9559,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -9569,7 +9570,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -9580,7 +9581,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -9591,7 +9592,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -9602,7 +9603,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -9613,7 +9614,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -9624,7 +9625,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -9635,7 +9636,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -9646,7 +9647,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9657,7 +9658,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -9668,7 +9669,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9679,7 +9680,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -9690,7 +9691,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9701,7 +9702,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -9712,7 +9713,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -9723,7 +9724,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -9734,7 +9735,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -9745,7 +9746,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -9756,7 +9757,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -9767,7 +9768,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -9778,7 +9779,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -9789,7 +9790,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -9800,7 +9801,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -9811,7 +9812,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -9822,7 +9823,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -9833,7 +9834,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -9844,7 +9845,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -9855,7 +9856,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -9866,7 +9867,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -9877,7 +9878,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -9888,7 +9889,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -9899,7 +9900,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -9910,7 +9911,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -9921,7 +9922,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -9932,7 +9933,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -9943,7 +9944,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -9954,7 +9955,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -9965,7 +9966,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -9976,7 +9977,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -9987,7 +9988,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -9998,7 +9999,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -10024,19 +10025,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" t="s">
         <v>432</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>433</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" t="s">
         <v>435</v>
-      </c>
-      <c r="E1" t="s">
-        <v>436</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>333</v>
@@ -10047,13 +10048,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -10064,13 +10065,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
@@ -10081,13 +10082,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
@@ -10098,16 +10099,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10115,16 +10116,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10132,16 +10133,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -10149,13 +10150,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F8" s="9">
         <v>2</v>
@@ -10166,13 +10167,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -10183,13 +10184,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
@@ -10200,16 +10201,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10217,16 +10218,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -10234,16 +10235,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10251,13 +10252,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -10268,13 +10269,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -10285,13 +10286,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
@@ -10302,16 +10303,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -10319,16 +10320,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10336,16 +10337,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10353,16 +10354,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -10370,16 +10371,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -10387,13 +10388,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F22" s="9">
         <v>2</v>
@@ -10404,13 +10405,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F23" s="6">
         <v>3</v>
@@ -10421,13 +10422,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
@@ -10438,16 +10439,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10455,16 +10456,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -10472,16 +10473,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -10501,7 +10502,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s">
         <v>340</v>
@@ -12575,10 +12576,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" t="s">
         <v>478</v>
-      </c>
-      <c r="B1" t="s">
-        <v>479</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -12590,19 +12591,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -12613,19 +12614,19 @@
         <v>201011111</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" t="s">
         <v>486</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -12645,19 +12646,19 @@
         <v>201022222</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" t="s">
         <v>491</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -12677,19 +12678,19 @@
         <v>201033333</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" t="s">
         <v>496</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -12709,19 +12710,19 @@
         <v>201044444</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" t="s">
         <v>501</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -12741,19 +12742,19 @@
         <v>201055555</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -12773,19 +12774,19 @@
         <v>201066666</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -12805,19 +12806,19 @@
         <v>201077777</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -12837,19 +12838,19 @@
         <v>201088888</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -12893,10 +12894,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" t="s">
         <v>460</v>
-      </c>
-      <c r="B1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12904,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -12912,7 +12913,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -12920,7 +12921,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -12928,7 +12929,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/excel/initial_with_data.xlsx
+++ b/excel/initial_with_data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
     <sheet name="professor" sheetId="2" r:id="rId2"/>
-    <sheet name="fic" sheetId="8" r:id="rId3"/>
+    <sheet name="fic" sheetId="21" r:id="rId3"/>
     <sheet name="year_level" sheetId="3" r:id="rId4"/>
     <sheet name="topic_list" sheetId="4" r:id="rId5"/>
     <sheet name="subject_list" sheetId="5" r:id="rId6"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="632">
   <si>
     <t>firstname</t>
   </si>
@@ -1931,9 +1931,6 @@
   </si>
   <si>
     <t>Manahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5232,7 +5229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -8747,17 +8744,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="7" max="8" width="20.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8917,11 +8910,6 @@
       </c>
       <c r="J5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -9005,7 +8993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>

--- a/excel/initial_with_data.xlsx
+++ b/excel/initial_with_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="636">
   <si>
     <t>firstname</t>
   </si>
@@ -1931,6 +1931,18 @@
   </si>
   <si>
     <t>Manahan</t>
+  </si>
+  <si>
+    <t>Exclusive for CE Dept</t>
+  </si>
+  <si>
+    <t>Exclusive for ECE Dept</t>
+  </si>
+  <si>
+    <t>Exclusive for ME Dept</t>
+  </si>
+  <si>
+    <t>Exclusive for EE Dept</t>
   </si>
 </sst>
 </file>
@@ -2333,22 +2345,22 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B41" sqref="A1:I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>552</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>201511281</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>201511438</v>
       </c>
@@ -2435,7 +2447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>201411491</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>201410679</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>201411851</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>201410215</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>201420096</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>201512590</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>201411823</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>201410617</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>201410881</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>201512068</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>201512491</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>201510652</v>
       </c>
@@ -2783,7 +2795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>201511230</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>201511911</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>201510573</v>
       </c>
@@ -2870,7 +2882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>201512532</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>201510186</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>201411736</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>201311694</v>
       </c>
@@ -2986,7 +2998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>201311355</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>201412123</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>201420066</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>201412338</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>201412224</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>201410821</v>
       </c>
@@ -3160,7 +3172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>201410704</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>201412670</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>201210843</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>201410901</v>
       </c>
@@ -3276,7 +3288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>201230137</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>201410941</v>
       </c>
@@ -3334,7 +3346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>201411107</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>201412671</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>201411266</v>
       </c>
@@ -3421,7 +3433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>201412315</v>
       </c>
@@ -3450,7 +3462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>201420024</v>
       </c>
@@ -3479,7 +3491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>201310916</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>201512691</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>201410367</v>
       </c>
@@ -3566,7 +3578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>201310584</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>201710117</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>201710447</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>201710074</v>
       </c>
@@ -3682,7 +3694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>201710424</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>201710100</v>
       </c>
@@ -3740,7 +3752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>201710453</v>
       </c>
@@ -3769,7 +3781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>201710040</v>
       </c>
@@ -3798,7 +3810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>201710221</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>201710258</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>201710152</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>201710057</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>201710032</v>
       </c>
@@ -3943,7 +3955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>201710042</v>
       </c>
@@ -3972,7 +3984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>201710400</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>201710458</v>
       </c>
@@ -4030,7 +4042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>201710365</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>201011240</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>201710347</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>201710362</v>
       </c>
@@ -4146,7 +4158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>201710368</v>
       </c>
@@ -4175,7 +4187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>201710019</v>
       </c>
@@ -4204,7 +4216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>201710338</v>
       </c>
@@ -4233,7 +4245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>201710050</v>
       </c>
@@ -4262,7 +4274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>201710384</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>201710054</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>201710405</v>
       </c>
@@ -4349,7 +4361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>201710174</v>
       </c>
@@ -4378,7 +4390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>201710260</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>201011434</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>201412795</v>
       </c>
@@ -4465,7 +4477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>201710002</v>
       </c>
@@ -4494,7 +4506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>201111222</v>
       </c>
@@ -4523,7 +4535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>201710020</v>
       </c>
@@ -4552,7 +4564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>201710076</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>201710341</v>
       </c>
@@ -4631,13 +4643,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4653,7 +4665,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4674,15 +4686,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>523</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4723,19 +4735,19 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>528</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4813,7 +4825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4839,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4865,7 +4877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4930,15 +4942,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>543</v>
       </c>
@@ -4955,7 +4967,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>201200001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4989,7 +5001,7 @@
         <v>201200001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>201200002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5023,7 +5035,7 @@
         <v>201200002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5040,7 +5052,7 @@
         <v>201200003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5070,17 +5082,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>618</v>
       </c>
@@ -5100,7 +5112,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5120,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5140,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5160,7 +5172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5180,7 +5192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5200,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5233,21 +5245,21 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>482</v>
       </c>
@@ -5285,7 +5297,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5361,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5399,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5437,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5513,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5551,7 +5563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5589,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5627,7 +5639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5665,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5703,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5741,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5779,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5855,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5893,7 +5905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5931,7 +5943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6045,7 +6057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6083,7 +6095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6121,7 +6133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6159,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6197,7 +6209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6248,17 +6260,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>555</v>
       </c>
@@ -6278,7 +6290,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6298,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6332,7 +6344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6369,7 +6381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6386,7 +6398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6406,7 +6418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6423,7 +6435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6470,15 +6482,15 @@
       <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>558</v>
       </c>
@@ -6498,7 +6510,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6518,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6538,7 +6550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6558,7 +6570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6578,7 +6590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6598,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6618,7 +6630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6638,7 +6650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6678,7 +6690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6698,7 +6710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6718,7 +6730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6738,7 +6750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6758,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6778,7 +6790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6798,7 +6810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6818,7 +6830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6838,7 +6850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6858,7 +6870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6878,7 +6890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6898,7 +6910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6918,7 +6930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6938,7 +6950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6958,7 +6970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6978,7 +6990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6998,7 +7010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7018,7 +7030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7038,7 +7050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7058,7 +7070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7078,7 +7090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7098,7 +7110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7118,7 +7130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7158,7 +7170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7178,7 +7190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7198,7 +7210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7218,7 +7230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7238,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7278,7 +7290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7298,7 +7310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7318,7 +7330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7338,7 +7350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7358,7 +7370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7378,7 +7390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7398,7 +7410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7418,7 +7430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7438,7 +7450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7458,7 +7470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7478,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7498,7 +7510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7518,7 +7530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7538,7 +7550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7558,7 +7570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7578,7 +7590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7598,7 +7610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7618,7 +7630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7638,7 +7650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7658,7 +7670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7678,7 +7690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7698,7 +7710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7718,7 +7730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7758,7 +7770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7778,7 +7790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7798,7 +7810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7818,7 +7830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7838,7 +7850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7878,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7898,7 +7910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7918,7 +7930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7938,7 +7950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7958,7 +7970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7978,7 +7990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7998,7 +8010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8018,7 +8030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8038,7 +8050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8058,7 +8070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8078,7 +8090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8098,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8118,7 +8130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8138,7 +8150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8158,7 +8170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8178,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8198,7 +8210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8218,7 +8230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8238,7 +8250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8258,7 +8270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8278,7 +8290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8298,7 +8310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8318,7 +8330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8338,7 +8350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8358,7 +8370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8378,7 +8390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8398,7 +8410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8418,7 +8430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8438,7 +8450,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8458,7 +8470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8478,7 +8490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8518,7 +8530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8548,15 +8560,15 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>313</v>
       </c>
@@ -8591,7 +8603,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201111111</v>
       </c>
@@ -8626,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201122222</v>
       </c>
@@ -8661,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>201133333</v>
       </c>
@@ -8696,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>201144444</v>
       </c>
@@ -8746,13 +8758,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>451</v>
       </c>
@@ -8784,7 +8799,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201200001</v>
       </c>
@@ -8816,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201200002</v>
       </c>
@@ -8848,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>201200003</v>
       </c>
@@ -8880,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>201200004</v>
       </c>
@@ -8928,15 +8943,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>333</v>
       </c>
@@ -8944,7 +8959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8952,7 +8967,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8960,7 +8975,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8968,7 +8983,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8976,7 +8991,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8994,16 +9009,16 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="B54" sqref="A1:C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -9014,7 +9029,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9025,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9036,7 +9051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9047,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9058,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9069,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9080,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9091,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9102,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9113,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9124,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9135,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9146,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9157,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9168,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9179,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9190,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9201,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9212,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9223,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9234,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9245,7 +9260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9256,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9267,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9278,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9289,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9300,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9311,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9322,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9333,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9344,7 +9359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9355,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9366,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9377,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9388,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9399,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9410,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9421,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9432,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9443,7 +9458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9454,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9465,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9476,7 +9491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9487,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9498,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9509,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9520,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9531,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9542,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -9553,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -9564,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -9575,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -9586,7 +9601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -9597,7 +9612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -9608,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -9619,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -9630,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -9641,7 +9656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -9652,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -9663,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -9674,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -9685,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -9696,7 +9711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -9707,7 +9722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -9718,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -9729,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -9740,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -9751,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -9762,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -9773,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -9784,7 +9799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -9795,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -9806,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -9817,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -9828,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -9839,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -9850,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -9861,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -9872,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -9883,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -9894,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -9905,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -9916,7 +9931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -9927,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -9938,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -9949,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -9960,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -9971,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -9982,7 +9997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -10002,16 +10017,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>431</v>
       </c>
@@ -10031,7 +10047,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -10044,11 +10060,14 @@
       <c r="D2" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="F2" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -10061,11 +10080,14 @@
       <c r="D3" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -10078,11 +10100,14 @@
       <c r="D4" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="F4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -10095,11 +10120,14 @@
       <c r="D5" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -10112,11 +10140,14 @@
       <c r="D6" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -10129,11 +10160,14 @@
       <c r="D7" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -10146,11 +10180,14 @@
       <c r="D8" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="F8" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -10163,11 +10200,14 @@
       <c r="D9" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="F9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -10180,11 +10220,14 @@
       <c r="D10" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="F10" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -10197,11 +10240,14 @@
       <c r="D11" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -10214,11 +10260,14 @@
       <c r="D12" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E12" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -10231,11 +10280,14 @@
       <c r="D13" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -10248,11 +10300,14 @@
       <c r="D14" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F14" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -10265,11 +10320,14 @@
       <c r="D15" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E15" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F15" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -10282,11 +10340,14 @@
       <c r="D16" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E16" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F16" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -10299,11 +10360,14 @@
       <c r="D17" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E17" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -10316,11 +10380,14 @@
       <c r="D18" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E18" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -10333,11 +10400,14 @@
       <c r="D19" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E19" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -10350,11 +10420,14 @@
       <c r="D20" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E20" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -10367,11 +10440,14 @@
       <c r="D21" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E21" s="7" t="s">
+        <v>633</v>
+      </c>
       <c r="F21" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -10384,11 +10460,14 @@
       <c r="D22" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E22" s="7" t="s">
+        <v>634</v>
+      </c>
       <c r="F22" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -10401,11 +10480,14 @@
       <c r="D23" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E23" s="7" t="s">
+        <v>634</v>
+      </c>
       <c r="F23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -10418,11 +10500,14 @@
       <c r="D24" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E24" s="7" t="s">
+        <v>634</v>
+      </c>
       <c r="F24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -10435,11 +10520,14 @@
       <c r="D25" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E25" s="7" t="s">
+        <v>634</v>
+      </c>
       <c r="F25" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -10452,11 +10540,14 @@
       <c r="D26" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="E26" s="7" t="s">
+        <v>634</v>
+      </c>
       <c r="F26" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -10468,6 +10559,9 @@
       </c>
       <c r="D27" s="6" t="s">
         <v>437</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>440</v>
@@ -10486,9 +10580,9 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>431</v>
       </c>
@@ -10496,7 +10590,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10504,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10512,7 +10606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10520,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10528,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10536,7 +10630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10544,7 +10638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10552,7 +10646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -10560,7 +10654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10568,7 +10662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10576,7 +10670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -10584,7 +10678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10592,7 +10686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -10600,7 +10694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -10608,7 +10702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10616,7 +10710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -10624,7 +10718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10632,7 +10726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10640,7 +10734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -10648,7 +10742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10656,7 +10750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -10664,7 +10758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -10672,7 +10766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -10680,7 +10774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -10688,7 +10782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -10696,7 +10790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10704,7 +10798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -10712,7 +10806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -10720,7 +10814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -10728,7 +10822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -10736,7 +10830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -10744,7 +10838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -10752,7 +10846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -10760,7 +10854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -10768,7 +10862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -10776,7 +10870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -10784,7 +10878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>4</v>
       </c>
@@ -10792,7 +10886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>5</v>
       </c>
@@ -10800,7 +10894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>4</v>
       </c>
@@ -10808,7 +10902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>5</v>
       </c>
@@ -10816,7 +10910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>4</v>
       </c>
@@ -10824,7 +10918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -10832,7 +10926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>4</v>
       </c>
@@ -10840,7 +10934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>5</v>
       </c>
@@ -10848,7 +10942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>4</v>
       </c>
@@ -10856,7 +10950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>5</v>
       </c>
@@ -10864,7 +10958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>4</v>
       </c>
@@ -10872,7 +10966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>5</v>
       </c>
@@ -10880,7 +10974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>4</v>
       </c>
@@ -10888,7 +10982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>5</v>
       </c>
@@ -10896,7 +10990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>4</v>
       </c>
@@ -10904,7 +10998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>5</v>
       </c>
@@ -10912,7 +11006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>4</v>
       </c>
@@ -10920,7 +11014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>5</v>
       </c>
@@ -10928,7 +11022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>4</v>
       </c>
@@ -10936,7 +11030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>5</v>
       </c>
@@ -10944,7 +11038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>4</v>
       </c>
@@ -10952,7 +11046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>5</v>
       </c>
@@ -10960,7 +11054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>4</v>
       </c>
@@ -10968,7 +11062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>5</v>
       </c>
@@ -10976,7 +11070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>6</v>
       </c>
@@ -10984,7 +11078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>6</v>
       </c>
@@ -10992,7 +11086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>6</v>
       </c>
@@ -11000,7 +11094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>6</v>
       </c>
@@ -11008,7 +11102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>6</v>
       </c>
@@ -11016,7 +11110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>6</v>
       </c>
@@ -11024,7 +11118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>6</v>
       </c>
@@ -11032,7 +11126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>6</v>
       </c>
@@ -11040,7 +11134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>6</v>
       </c>
@@ -11048,7 +11142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>7</v>
       </c>
@@ -11056,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>8</v>
       </c>
@@ -11064,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>9</v>
       </c>
@@ -11072,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>7</v>
       </c>
@@ -11080,7 +11174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>8</v>
       </c>
@@ -11088,7 +11182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>9</v>
       </c>
@@ -11096,7 +11190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>7</v>
       </c>
@@ -11104,7 +11198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>8</v>
       </c>
@@ -11112,7 +11206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>9</v>
       </c>
@@ -11120,7 +11214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>7</v>
       </c>
@@ -11128,7 +11222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>8</v>
       </c>
@@ -11136,7 +11230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>9</v>
       </c>
@@ -11144,7 +11238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>7</v>
       </c>
@@ -11152,7 +11246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>8</v>
       </c>
@@ -11160,7 +11254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>9</v>
       </c>
@@ -11168,7 +11262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>7</v>
       </c>
@@ -11176,7 +11270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>8</v>
       </c>
@@ -11184,7 +11278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>9</v>
       </c>
@@ -11192,7 +11286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>7</v>
       </c>
@@ -11200,7 +11294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>8</v>
       </c>
@@ -11208,7 +11302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>9</v>
       </c>
@@ -11216,7 +11310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>7</v>
       </c>
@@ -11224,7 +11318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>8</v>
       </c>
@@ -11232,7 +11326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>9</v>
       </c>
@@ -11240,7 +11334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>7</v>
       </c>
@@ -11248,7 +11342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>8</v>
       </c>
@@ -11256,7 +11350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>9</v>
       </c>
@@ -11264,7 +11358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>7</v>
       </c>
@@ -11272,7 +11366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>8</v>
       </c>
@@ -11280,7 +11374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>9</v>
       </c>
@@ -11288,7 +11382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>7</v>
       </c>
@@ -11296,7 +11390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>8</v>
       </c>
@@ -11304,7 +11398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>9</v>
       </c>
@@ -11312,7 +11406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>10</v>
       </c>
@@ -11320,7 +11414,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>11</v>
       </c>
@@ -11328,7 +11422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>10</v>
       </c>
@@ -11336,7 +11430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>11</v>
       </c>
@@ -11344,7 +11438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>10</v>
       </c>
@@ -11352,7 +11446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>11</v>
       </c>
@@ -11360,7 +11454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>10</v>
       </c>
@@ -11368,7 +11462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>11</v>
       </c>
@@ -11376,7 +11470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>10</v>
       </c>
@@ -11384,7 +11478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>11</v>
       </c>
@@ -11392,7 +11486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>10</v>
       </c>
@@ -11400,7 +11494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>11</v>
       </c>
@@ -11408,7 +11502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>10</v>
       </c>
@@ -11416,7 +11510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>11</v>
       </c>
@@ -11424,7 +11518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>10</v>
       </c>
@@ -11432,7 +11526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>11</v>
       </c>
@@ -11440,7 +11534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>10</v>
       </c>
@@ -11448,7 +11542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>11</v>
       </c>
@@ -11456,7 +11550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>12</v>
       </c>
@@ -11464,7 +11558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>12</v>
       </c>
@@ -11472,7 +11566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>12</v>
       </c>
@@ -11480,7 +11574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>12</v>
       </c>
@@ -11488,7 +11582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>12</v>
       </c>
@@ -11496,7 +11590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>12</v>
       </c>
@@ -11504,7 +11598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>12</v>
       </c>
@@ -11512,7 +11606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>12</v>
       </c>
@@ -11520,7 +11614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>12</v>
       </c>
@@ -11528,7 +11622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>12</v>
       </c>
@@ -11536,7 +11630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>12</v>
       </c>
@@ -11544,7 +11638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>13</v>
       </c>
@@ -11552,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>14</v>
       </c>
@@ -11560,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>15</v>
       </c>
@@ -11568,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>13</v>
       </c>
@@ -11576,7 +11670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>14</v>
       </c>
@@ -11584,7 +11678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>15</v>
       </c>
@@ -11592,7 +11686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>13</v>
       </c>
@@ -11600,7 +11694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>14</v>
       </c>
@@ -11608,7 +11702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>15</v>
       </c>
@@ -11616,7 +11710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>13</v>
       </c>
@@ -11624,7 +11718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>14</v>
       </c>
@@ -11632,7 +11726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>15</v>
       </c>
@@ -11640,7 +11734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>13</v>
       </c>
@@ -11648,7 +11742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>14</v>
       </c>
@@ -11656,7 +11750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>15</v>
       </c>
@@ -11664,7 +11758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>13</v>
       </c>
@@ -11672,7 +11766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>14</v>
       </c>
@@ -11680,7 +11774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>15</v>
       </c>
@@ -11688,7 +11782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>13</v>
       </c>
@@ -11696,7 +11790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>14</v>
       </c>
@@ -11704,7 +11798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>15</v>
       </c>
@@ -11712,7 +11806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>13</v>
       </c>
@@ -11720,7 +11814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>14</v>
       </c>
@@ -11728,7 +11822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>15</v>
       </c>
@@ -11736,7 +11830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>13</v>
       </c>
@@ -11744,7 +11838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>14</v>
       </c>
@@ -11752,7 +11846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>15</v>
       </c>
@@ -11760,7 +11854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>13</v>
       </c>
@@ -11768,7 +11862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>14</v>
       </c>
@@ -11776,7 +11870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>15</v>
       </c>
@@ -11784,7 +11878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>13</v>
       </c>
@@ -11792,7 +11886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>14</v>
       </c>
@@ -11800,7 +11894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>15</v>
       </c>
@@ -11808,7 +11902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>16</v>
       </c>
@@ -11816,7 +11910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>17</v>
       </c>
@@ -11824,7 +11918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>16</v>
       </c>
@@ -11832,7 +11926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>17</v>
       </c>
@@ -11840,7 +11934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>16</v>
       </c>
@@ -11848,7 +11942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>17</v>
       </c>
@@ -11856,7 +11950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>16</v>
       </c>
@@ -11864,7 +11958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>17</v>
       </c>
@@ -11872,7 +11966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>16</v>
       </c>
@@ -11880,7 +11974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>17</v>
       </c>
@@ -11888,7 +11982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>18</v>
       </c>
@@ -11896,7 +11990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>19</v>
       </c>
@@ -11904,7 +11998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>18</v>
       </c>
@@ -11912,7 +12006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>19</v>
       </c>
@@ -11920,7 +12014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>18</v>
       </c>
@@ -11928,7 +12022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>19</v>
       </c>
@@ -11936,7 +12030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>18</v>
       </c>
@@ -11944,7 +12038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>19</v>
       </c>
@@ -11952,7 +12046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>18</v>
       </c>
@@ -11960,7 +12054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>19</v>
       </c>
@@ -11968,7 +12062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>18</v>
       </c>
@@ -11976,7 +12070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>19</v>
       </c>
@@ -11984,7 +12078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>18</v>
       </c>
@@ -11992,7 +12086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>19</v>
       </c>
@@ -12000,7 +12094,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>20</v>
       </c>
@@ -12008,7 +12102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>20</v>
       </c>
@@ -12016,7 +12110,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>20</v>
       </c>
@@ -12024,7 +12118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>20</v>
       </c>
@@ -12032,7 +12126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>20</v>
       </c>
@@ -12040,7 +12134,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>20</v>
       </c>
@@ -12048,7 +12142,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>20</v>
       </c>
@@ -12056,7 +12150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>21</v>
       </c>
@@ -12064,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>22</v>
       </c>
@@ -12072,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>23</v>
       </c>
@@ -12080,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>21</v>
       </c>
@@ -12088,7 +12182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>22</v>
       </c>
@@ -12096,7 +12190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>23</v>
       </c>
@@ -12104,7 +12198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>21</v>
       </c>
@@ -12112,7 +12206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>22</v>
       </c>
@@ -12120,7 +12214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>23</v>
       </c>
@@ -12128,7 +12222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>21</v>
       </c>
@@ -12136,7 +12230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>22</v>
       </c>
@@ -12144,7 +12238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>23</v>
       </c>
@@ -12152,7 +12246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>21</v>
       </c>
@@ -12160,7 +12254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>22</v>
       </c>
@@ -12168,7 +12262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>23</v>
       </c>
@@ -12176,7 +12270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>21</v>
       </c>
@@ -12184,7 +12278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>22</v>
       </c>
@@ -12192,7 +12286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>23</v>
       </c>
@@ -12200,7 +12294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>21</v>
       </c>
@@ -12208,7 +12302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>22</v>
       </c>
@@ -12216,7 +12310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>23</v>
       </c>
@@ -12224,7 +12318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>21</v>
       </c>
@@ -12232,7 +12326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>22</v>
       </c>
@@ -12240,7 +12334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>23</v>
       </c>
@@ -12248,7 +12342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>21</v>
       </c>
@@ -12256,7 +12350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>22</v>
       </c>
@@ -12264,7 +12358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>23</v>
       </c>
@@ -12272,7 +12366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>21</v>
       </c>
@@ -12280,7 +12374,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>22</v>
       </c>
@@ -12288,7 +12382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>23</v>
       </c>
@@ -12296,7 +12390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>21</v>
       </c>
@@ -12304,7 +12398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>22</v>
       </c>
@@ -12312,7 +12406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>23</v>
       </c>
@@ -12320,7 +12414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>21</v>
       </c>
@@ -12328,7 +12422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>22</v>
       </c>
@@ -12336,7 +12430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>23</v>
       </c>
@@ -12344,7 +12438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>24</v>
       </c>
@@ -12352,7 +12446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>25</v>
       </c>
@@ -12360,7 +12454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>24</v>
       </c>
@@ -12368,7 +12462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>25</v>
       </c>
@@ -12376,7 +12470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>24</v>
       </c>
@@ -12384,7 +12478,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>25</v>
       </c>
@@ -12392,7 +12486,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>24</v>
       </c>
@@ -12400,7 +12494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>25</v>
       </c>
@@ -12408,7 +12502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>24</v>
       </c>
@@ -12416,7 +12510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>25</v>
       </c>
@@ -12424,7 +12518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>24</v>
       </c>
@@ -12432,7 +12526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>25</v>
       </c>
@@ -12440,7 +12534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>24</v>
       </c>
@@ -12448,7 +12542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>25</v>
       </c>
@@ -12456,7 +12550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>24</v>
       </c>
@@ -12464,7 +12558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>25</v>
       </c>
@@ -12472,7 +12566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>26</v>
       </c>
@@ -12480,7 +12574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>26</v>
       </c>
@@ -12488,7 +12582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>26</v>
       </c>
@@ -12496,7 +12590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>26</v>
       </c>
@@ -12504,7 +12598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>26</v>
       </c>
@@ -12512,7 +12606,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>26</v>
       </c>
@@ -12520,7 +12614,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>26</v>
       </c>
@@ -12528,7 +12622,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>26</v>
       </c>
@@ -12549,20 +12643,20 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -12594,7 +12688,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12626,7 +12720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12658,7 +12752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12690,7 +12784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12722,7 +12816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12754,7 +12848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12786,7 +12880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12818,7 +12912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12874,13 +12968,13 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>459</v>
       </c>
@@ -12888,7 +12982,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12896,7 +12990,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12904,7 +12998,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12912,7 +13006,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
